--- a/resources/sheets/exportTemplate.xlsx
+++ b/resources/sheets/exportTemplate.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Resultados" sheetId="1" r:id="rId1"/>
     <sheet name="ISO 717-1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -438,7 +441,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,6 +517,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -848,20 +857,16 @@
     <xf numFmtId="0" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -889,10 +894,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,6 +915,566 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>235131</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>256905</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161111</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5904411" y="4598126"/>
+          <a:ext cx="21774" cy="2468882"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>936171</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>938213</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>148046</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8495211" y="4601529"/>
+          <a:ext cx="2042" cy="2452414"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>411481</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>139</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="17400814" y="4574721"/>
+          <a:ext cx="8710" cy="2471197"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142877</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>159834</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="19969745" y="4546215"/>
+          <a:ext cx="16957" cy="2460468"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Resultados"/>
+      <sheetName val="ISO 717-1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="J2">
+            <v>37</v>
+          </cell>
+          <cell r="K2">
+            <v>40</v>
+          </cell>
+          <cell r="L2">
+            <v>43</v>
+          </cell>
+          <cell r="M2">
+            <v>46</v>
+          </cell>
+          <cell r="N2">
+            <v>49</v>
+          </cell>
+          <cell r="O2">
+            <v>52</v>
+          </cell>
+          <cell r="P2">
+            <v>55</v>
+          </cell>
+          <cell r="Q2">
+            <v>56</v>
+          </cell>
+          <cell r="R2">
+            <v>57</v>
+          </cell>
+          <cell r="S2">
+            <v>58</v>
+          </cell>
+          <cell r="T2">
+            <v>59</v>
+          </cell>
+          <cell r="U2">
+            <v>60</v>
+          </cell>
+          <cell r="V2">
+            <v>60</v>
+          </cell>
+          <cell r="W2">
+            <v>60</v>
+          </cell>
+          <cell r="X2">
+            <v>60</v>
+          </cell>
+          <cell r="Y2">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="K3">
+            <v>41</v>
+          </cell>
+          <cell r="L3">
+            <v>44</v>
+          </cell>
+          <cell r="M3">
+            <v>47</v>
+          </cell>
+          <cell r="N3">
+            <v>50</v>
+          </cell>
+          <cell r="O3">
+            <v>53</v>
+          </cell>
+          <cell r="P3">
+            <v>56</v>
+          </cell>
+          <cell r="Q3">
+            <v>57</v>
+          </cell>
+          <cell r="R3">
+            <v>58</v>
+          </cell>
+          <cell r="S3">
+            <v>59</v>
+          </cell>
+          <cell r="T3">
+            <v>60</v>
+          </cell>
+          <cell r="U3">
+            <v>61</v>
+          </cell>
+          <cell r="V3">
+            <v>61</v>
+          </cell>
+          <cell r="W3">
+            <v>61</v>
+          </cell>
+          <cell r="X3">
+            <v>61</v>
+          </cell>
+          <cell r="Y3">
+            <v>61</v>
+          </cell>
+          <cell r="Z3">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>50</v>
+          </cell>
+          <cell r="D27">
+            <v>32.299999999999997</v>
+          </cell>
+          <cell r="P27">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>63</v>
+          </cell>
+          <cell r="D28">
+            <v>33.4</v>
+          </cell>
+          <cell r="P28">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>80</v>
+          </cell>
+          <cell r="D29">
+            <v>34.5</v>
+          </cell>
+          <cell r="P29">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>100</v>
+          </cell>
+          <cell r="D30">
+            <v>36.700000000000003</v>
+          </cell>
+          <cell r="P30">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>125</v>
+          </cell>
+          <cell r="D31">
+            <v>38.200000000000003</v>
+          </cell>
+          <cell r="P31">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>160</v>
+          </cell>
+          <cell r="D32">
+            <v>39.799999999999997</v>
+          </cell>
+          <cell r="P32">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>200</v>
+          </cell>
+          <cell r="D33">
+            <v>41.8</v>
+          </cell>
+          <cell r="P33">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>250</v>
+          </cell>
+          <cell r="D34">
+            <v>44.9</v>
+          </cell>
+          <cell r="P34">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>315</v>
+          </cell>
+          <cell r="D35">
+            <v>47.9</v>
+          </cell>
+          <cell r="P35">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>400</v>
+          </cell>
+          <cell r="D36">
+            <v>50.9</v>
+          </cell>
+          <cell r="P36">
+            <v>51</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>500</v>
+          </cell>
+          <cell r="D37">
+            <v>53.5</v>
+          </cell>
+          <cell r="P37">
+            <v>54</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>630</v>
+          </cell>
+          <cell r="D38">
+            <v>56.2</v>
+          </cell>
+          <cell r="P38">
+            <v>56</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>800</v>
+          </cell>
+          <cell r="D39">
+            <v>59</v>
+          </cell>
+          <cell r="P39">
+            <v>59</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>1000</v>
+          </cell>
+          <cell r="D40">
+            <v>61.6</v>
+          </cell>
+          <cell r="P40">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>1250</v>
+          </cell>
+          <cell r="D41">
+            <v>64.099999999999994</v>
+          </cell>
+          <cell r="P41">
+            <v>64</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>1600</v>
+          </cell>
+          <cell r="D42">
+            <v>66.900000000000006</v>
+          </cell>
+          <cell r="P42">
+            <v>67</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>2000</v>
+          </cell>
+          <cell r="D43">
+            <v>69.400000000000006</v>
+          </cell>
+          <cell r="P43">
+            <v>69</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>2500</v>
+          </cell>
+          <cell r="D44">
+            <v>71.900000000000006</v>
+          </cell>
+          <cell r="P44">
+            <v>72</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>3150</v>
+          </cell>
+          <cell r="D45">
+            <v>74.400000000000006</v>
+          </cell>
+          <cell r="P45">
+            <v>74</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>4000</v>
+          </cell>
+          <cell r="D46">
+            <v>77.099999999999994</v>
+          </cell>
+          <cell r="P46">
+            <v>77</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>5000</v>
+          </cell>
+          <cell r="D47">
+            <v>79.599999999999994</v>
+          </cell>
+          <cell r="P47">
+            <v>80</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1111,7 +1681,7 @@
   <dimension ref="A1:AF1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3905,13 +4475,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="24" width="17.33203125" customWidth="1"/>
+    <col min="1" max="24" width="13.77734375" customWidth="1"/>
+    <col min="25" max="27" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
@@ -3998,27 +4569,27 @@
       <c r="F2" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
     </row>
     <row r="3" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4030,27 +4601,27 @@
       <c r="F3" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="88"/>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="88"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="71"/>
     </row>
     <row r="4" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4099,175 +4670,175 @@
         <v>15</v>
       </c>
       <c r="B7" s="19"/>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="19"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="81"/>
-      <c r="M13" s="79" t="s">
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
+      <c r="M13" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="81"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="79"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="84"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="84"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="82"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="82"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="84"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="83"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="84"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="82"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="82"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="87"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="87"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="85"/>
     </row>
     <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="K17" s="22"/>
       <c r="M17" s="23"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
       <c r="W17" s="24"/>
     </row>
     <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.25">
@@ -4275,25 +4846,25 @@
       <c r="C18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="73" t="s">
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="72"/>
+      <c r="I18" s="74"/>
       <c r="K18" s="22"/>
       <c r="M18" s="23"/>
       <c r="O18" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
       <c r="W18" s="24"/>
     </row>
     <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
@@ -4322,48 +4893,48 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
       <c r="K20" s="22"/>
       <c r="M20" s="23"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
       <c r="W20" s="24"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
       <c r="K21" s="24"/>
       <c r="M21" s="23"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
       <c r="W21" s="22"/>
     </row>
     <row r="22" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="76"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="28"/>
       <c r="E22" s="29"/>
       <c r="F22" s="30"/>
@@ -4373,8 +4944,8 @@
       <c r="J22" s="31"/>
       <c r="K22" s="24"/>
       <c r="M22" s="23"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="76"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="87"/>
       <c r="P22" s="28"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="29"/>
@@ -4386,14 +4957,14 @@
     </row>
     <row r="23" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="72"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="32"/>
       <c r="J23" s="22"/>
       <c r="K23" s="24"/>
       <c r="M23" s="23"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="72"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="74"/>
       <c r="P23" s="32"/>
       <c r="V23" s="24"/>
       <c r="W23" s="24"/>
@@ -4417,6 +4988,7 @@
       <c r="D25" s="34" t="s">
         <v>28</v>
       </c>
+      <c r="F25" s="90"/>
       <c r="J25" s="22"/>
       <c r="K25" s="24"/>
       <c r="M25" s="23"/>
@@ -4875,12 +5447,12 @@
     </row>
     <row r="51" spans="1:23" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
-      <c r="B51" s="78" t="s">
+      <c r="B51" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
       <c r="F51" s="29"/>
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
@@ -4888,12 +5460,12 @@
       <c r="J51" s="50"/>
       <c r="K51" s="24"/>
       <c r="M51" s="23"/>
-      <c r="N51" s="78" t="s">
+      <c r="N51" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="O51" s="76"/>
-      <c r="P51" s="76"/>
-      <c r="Q51" s="76"/>
+      <c r="O51" s="87"/>
+      <c r="P51" s="87"/>
+      <c r="Q51" s="87"/>
       <c r="R51" s="29"/>
       <c r="S51" s="29"/>
       <c r="T51" s="29"/>
@@ -5086,15 +5658,15 @@
       <c r="B60" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
       <c r="K60" s="24"/>
       <c r="M60" s="23"/>
       <c r="N60" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="O60" s="72"/>
-      <c r="P60" s="72"/>
+      <c r="O60" s="74"/>
+      <c r="P60" s="74"/>
       <c r="W60" s="22"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -5108,8 +5680,8 @@
       <c r="B62" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
       <c r="F62" s="60" t="s">
         <v>44</v>
       </c>
@@ -5118,8 +5690,8 @@
       <c r="N62" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="O62" s="72"/>
-      <c r="P62" s="72"/>
+      <c r="O62" s="74"/>
+      <c r="P62" s="74"/>
       <c r="R62" s="53" t="s">
         <v>44</v>
       </c>
@@ -5178,5 +5750,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/resources/sheets/exportTemplate.xlsx
+++ b/resources/sheets/exportTemplate.xlsx
@@ -10,9 +10,6 @@
     <sheet name="Resultados" sheetId="1" r:id="rId1"/>
     <sheet name="ISO 717-1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -861,8 +858,17 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -894,15 +900,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1128,353 +1125,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Resultados"/>
-      <sheetName val="ISO 717-1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="J2">
-            <v>37</v>
-          </cell>
-          <cell r="K2">
-            <v>40</v>
-          </cell>
-          <cell r="L2">
-            <v>43</v>
-          </cell>
-          <cell r="M2">
-            <v>46</v>
-          </cell>
-          <cell r="N2">
-            <v>49</v>
-          </cell>
-          <cell r="O2">
-            <v>52</v>
-          </cell>
-          <cell r="P2">
-            <v>55</v>
-          </cell>
-          <cell r="Q2">
-            <v>56</v>
-          </cell>
-          <cell r="R2">
-            <v>57</v>
-          </cell>
-          <cell r="S2">
-            <v>58</v>
-          </cell>
-          <cell r="T2">
-            <v>59</v>
-          </cell>
-          <cell r="U2">
-            <v>60</v>
-          </cell>
-          <cell r="V2">
-            <v>60</v>
-          </cell>
-          <cell r="W2">
-            <v>60</v>
-          </cell>
-          <cell r="X2">
-            <v>60</v>
-          </cell>
-          <cell r="Y2">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="K3">
-            <v>41</v>
-          </cell>
-          <cell r="L3">
-            <v>44</v>
-          </cell>
-          <cell r="M3">
-            <v>47</v>
-          </cell>
-          <cell r="N3">
-            <v>50</v>
-          </cell>
-          <cell r="O3">
-            <v>53</v>
-          </cell>
-          <cell r="P3">
-            <v>56</v>
-          </cell>
-          <cell r="Q3">
-            <v>57</v>
-          </cell>
-          <cell r="R3">
-            <v>58</v>
-          </cell>
-          <cell r="S3">
-            <v>59</v>
-          </cell>
-          <cell r="T3">
-            <v>60</v>
-          </cell>
-          <cell r="U3">
-            <v>61</v>
-          </cell>
-          <cell r="V3">
-            <v>61</v>
-          </cell>
-          <cell r="W3">
-            <v>61</v>
-          </cell>
-          <cell r="X3">
-            <v>61</v>
-          </cell>
-          <cell r="Y3">
-            <v>61</v>
-          </cell>
-          <cell r="Z3">
-            <v>61</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>50</v>
-          </cell>
-          <cell r="D27">
-            <v>32.299999999999997</v>
-          </cell>
-          <cell r="P27">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>63</v>
-          </cell>
-          <cell r="D28">
-            <v>33.4</v>
-          </cell>
-          <cell r="P28">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>80</v>
-          </cell>
-          <cell r="D29">
-            <v>34.5</v>
-          </cell>
-          <cell r="P29">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>100</v>
-          </cell>
-          <cell r="D30">
-            <v>36.700000000000003</v>
-          </cell>
-          <cell r="P30">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>125</v>
-          </cell>
-          <cell r="D31">
-            <v>38.200000000000003</v>
-          </cell>
-          <cell r="P31">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>160</v>
-          </cell>
-          <cell r="D32">
-            <v>39.799999999999997</v>
-          </cell>
-          <cell r="P32">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>200</v>
-          </cell>
-          <cell r="D33">
-            <v>41.8</v>
-          </cell>
-          <cell r="P33">
-            <v>42</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>250</v>
-          </cell>
-          <cell r="D34">
-            <v>44.9</v>
-          </cell>
-          <cell r="P34">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>315</v>
-          </cell>
-          <cell r="D35">
-            <v>47.9</v>
-          </cell>
-          <cell r="P35">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>400</v>
-          </cell>
-          <cell r="D36">
-            <v>50.9</v>
-          </cell>
-          <cell r="P36">
-            <v>51</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>500</v>
-          </cell>
-          <cell r="D37">
-            <v>53.5</v>
-          </cell>
-          <cell r="P37">
-            <v>54</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>630</v>
-          </cell>
-          <cell r="D38">
-            <v>56.2</v>
-          </cell>
-          <cell r="P38">
-            <v>56</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>800</v>
-          </cell>
-          <cell r="D39">
-            <v>59</v>
-          </cell>
-          <cell r="P39">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>1000</v>
-          </cell>
-          <cell r="D40">
-            <v>61.6</v>
-          </cell>
-          <cell r="P40">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>1250</v>
-          </cell>
-          <cell r="D41">
-            <v>64.099999999999994</v>
-          </cell>
-          <cell r="P41">
-            <v>64</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>1600</v>
-          </cell>
-          <cell r="D42">
-            <v>66.900000000000006</v>
-          </cell>
-          <cell r="P42">
-            <v>67</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>2000</v>
-          </cell>
-          <cell r="D43">
-            <v>69.400000000000006</v>
-          </cell>
-          <cell r="P43">
-            <v>69</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>2500</v>
-          </cell>
-          <cell r="D44">
-            <v>71.900000000000006</v>
-          </cell>
-          <cell r="P44">
-            <v>72</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>3150</v>
-          </cell>
-          <cell r="D45">
-            <v>74.400000000000006</v>
-          </cell>
-          <cell r="P45">
-            <v>74</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>4000</v>
-          </cell>
-          <cell r="D46">
-            <v>77.099999999999994</v>
-          </cell>
-          <cell r="P46">
-            <v>77</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>5000</v>
-          </cell>
-          <cell r="D47">
-            <v>79.599999999999994</v>
-          </cell>
-          <cell r="P47">
-            <v>80</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4475,8 +4125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4670,162 +4320,170 @@
         <v>15</v>
       </c>
       <c r="B7" s="19"/>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
     </row>
     <row r="8" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
     </row>
     <row r="9" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="19"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
     </row>
     <row r="10" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="79"/>
-      <c r="M13" s="77" t="s">
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="84"/>
+      <c r="M13" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="79"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="84"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="80"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="81"/>
-      <c r="W14" s="82"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="87"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="87"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="82"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="87"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="87"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="85"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="85"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="90"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="90"/>
     </row>
     <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="D17" s="73"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="74"/>
       <c r="F17" s="74"/>
       <c r="G17" s="74"/>
@@ -4833,7 +4491,7 @@
       <c r="I17" s="21"/>
       <c r="K17" s="22"/>
       <c r="M17" s="23"/>
-      <c r="P17" s="73"/>
+      <c r="P17" s="79"/>
       <c r="Q17" s="74"/>
       <c r="R17" s="74"/>
       <c r="S17" s="74"/>
@@ -4850,7 +4508,7 @@
       <c r="E18" s="74"/>
       <c r="F18" s="74"/>
       <c r="G18" s="74"/>
-      <c r="H18" s="75" t="s">
+      <c r="H18" s="80" t="s">
         <v>24</v>
       </c>
       <c r="I18" s="74"/>
@@ -4933,8 +4591,8 @@
     </row>
     <row r="22" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="28"/>
       <c r="E22" s="29"/>
       <c r="F22" s="30"/>
@@ -4944,8 +4602,8 @@
       <c r="J22" s="31"/>
       <c r="K22" s="24"/>
       <c r="M22" s="23"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="87"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="76"/>
       <c r="P22" s="28"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="29"/>
@@ -4957,13 +4615,13 @@
     </row>
     <row r="23" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
-      <c r="B23" s="88"/>
+      <c r="B23" s="77"/>
       <c r="C23" s="74"/>
       <c r="D23" s="32"/>
       <c r="J23" s="22"/>
       <c r="K23" s="24"/>
       <c r="M23" s="23"/>
-      <c r="N23" s="88"/>
+      <c r="N23" s="77"/>
       <c r="O23" s="74"/>
       <c r="P23" s="32"/>
       <c r="V23" s="24"/>
@@ -4988,7 +4646,7 @@
       <c r="D25" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="90"/>
+      <c r="F25" s="73"/>
       <c r="J25" s="22"/>
       <c r="K25" s="24"/>
       <c r="M25" s="23"/>
@@ -5447,12 +5105,12 @@
     </row>
     <row r="51" spans="1:23" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
-      <c r="B51" s="89" t="s">
+      <c r="B51" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
       <c r="F51" s="29"/>
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
@@ -5460,12 +5118,12 @@
       <c r="J51" s="50"/>
       <c r="K51" s="24"/>
       <c r="M51" s="23"/>
-      <c r="N51" s="89" t="s">
+      <c r="N51" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="O51" s="87"/>
-      <c r="P51" s="87"/>
-      <c r="Q51" s="87"/>
+      <c r="O51" s="76"/>
+      <c r="P51" s="76"/>
+      <c r="Q51" s="76"/>
       <c r="R51" s="29"/>
       <c r="S51" s="29"/>
       <c r="T51" s="29"/>
@@ -5729,6 +5387,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P17:U18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="C20:I21"/>
+    <mergeCell ref="O20:U21"/>
+    <mergeCell ref="A13:K16"/>
+    <mergeCell ref="M13:W16"/>
+    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="D7:M10"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="O62:P62"/>
     <mergeCell ref="B22:C22"/>
@@ -5737,16 +5405,6 @@
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="P17:U18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D7:K10"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="C20:I21"/>
-    <mergeCell ref="O20:U21"/>
-    <mergeCell ref="A13:K16"/>
-    <mergeCell ref="M13:W16"/>
-    <mergeCell ref="D17:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/resources/sheets/exportTemplate.xlsx
+++ b/resources/sheets/exportTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="600" windowWidth="22716" windowHeight="10788" activeTab="1"/>
+    <workbookView xWindow="132" yWindow="600" windowWidth="22716" windowHeight="10788"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>F[Hz]</t>
-  </si>
-  <si>
-    <t>PARED SIMPLE</t>
   </si>
   <si>
     <t>SHARP</t>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>STC ref</t>
+  </si>
+  <si>
+    <t>CREMER</t>
   </si>
 </sst>
 </file>
@@ -859,20 +859,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -900,6 +889,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1330,8 +1330,8 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1357,10 +1357,10 @@
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" s="61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -1395,7 +1395,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="6"/>
       <c r="G2" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="63">
         <v>0</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -4125,8 +4125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4137,15 +4137,15 @@
   <sheetData>
     <row r="1" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="17"/>
       <c r="F1" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="66">
         <v>50</v>
@@ -4213,11 +4213,11 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="19"/>
       <c r="F2" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="71"/>
       <c r="H2" s="71"/>
@@ -4243,13 +4243,13 @@
     </row>
     <row r="3" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="19"/>
       <c r="D3" s="68"/>
       <c r="E3" s="68"/>
       <c r="F3" s="70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="72"/>
       <c r="H3" s="72"/>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="4" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="19"/>
       <c r="D4" s="68"/>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="5" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="19"/>
       <c r="D5" s="68"/>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="6" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="19"/>
       <c r="D6" s="68"/>
@@ -4317,218 +4317,218 @@
     </row>
     <row r="7" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="19"/>
-      <c r="D7" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
+      <c r="D7" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
     </row>
     <row r="8" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
     </row>
     <row r="9" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="19"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
     </row>
     <row r="10" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
+      <c r="M13" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="84"/>
-      <c r="M13" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="84"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="79"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="87"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="87"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="82"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="82"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="87"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="87"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="82"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="82"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="90"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="90"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="85"/>
     </row>
     <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="K17" s="22"/>
       <c r="M17" s="23"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="75"/>
       <c r="W17" s="24"/>
     </row>
     <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="C18" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="75"/>
       <c r="K18" s="22"/>
       <c r="M18" s="23"/>
       <c r="O18" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
+        <v>22</v>
+      </c>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
       <c r="W18" s="24"/>
     </row>
     <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="C19" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="21"/>
@@ -4539,7 +4539,7 @@
       <c r="K19" s="22"/>
       <c r="M19" s="23"/>
       <c r="O19" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="27"/>
@@ -4551,48 +4551,48 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
       <c r="K20" s="22"/>
       <c r="M20" s="23"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="74"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
       <c r="W20" s="24"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
       <c r="K21" s="24"/>
       <c r="M21" s="23"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="74"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
       <c r="W21" s="22"/>
     </row>
     <row r="22" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="76"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="28"/>
       <c r="E22" s="29"/>
       <c r="F22" s="30"/>
@@ -4602,8 +4602,8 @@
       <c r="J22" s="31"/>
       <c r="K22" s="24"/>
       <c r="M22" s="23"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="76"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="88"/>
       <c r="P22" s="28"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="29"/>
@@ -4615,14 +4615,14 @@
     </row>
     <row r="23" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="74"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="32"/>
       <c r="J23" s="22"/>
       <c r="K23" s="24"/>
       <c r="M23" s="23"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="74"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="75"/>
       <c r="P23" s="32"/>
       <c r="V23" s="24"/>
       <c r="W23" s="24"/>
@@ -4641,10 +4641,10 @@
       <c r="A25" s="20"/>
       <c r="B25" s="23"/>
       <c r="C25" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="34" t="s">
         <v>27</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>28</v>
       </c>
       <c r="F25" s="73"/>
       <c r="J25" s="22"/>
@@ -4652,10 +4652,10 @@
       <c r="M25" s="23"/>
       <c r="N25" s="23"/>
       <c r="O25" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V25" s="22"/>
       <c r="W25" s="22"/>
@@ -4664,26 +4664,26 @@
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="G26" s="37" t="s">
         <v>30</v>
-      </c>
-      <c r="G26" s="37" t="s">
-        <v>31</v>
       </c>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
       <c r="O26" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="P26" s="36" t="s">
+      <c r="S26" s="39" t="s">
         <v>30</v>
-      </c>
-      <c r="S26" s="39" t="s">
-        <v>31</v>
       </c>
       <c r="V26" s="22"/>
       <c r="W26" s="22"/>
@@ -5105,12 +5105,12 @@
     </row>
     <row r="51" spans="1:23" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
-      <c r="B51" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
+      <c r="B51" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
       <c r="F51" s="29"/>
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
@@ -5118,12 +5118,12 @@
       <c r="J51" s="50"/>
       <c r="K51" s="24"/>
       <c r="M51" s="23"/>
-      <c r="N51" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="O51" s="76"/>
-      <c r="P51" s="76"/>
-      <c r="Q51" s="76"/>
+      <c r="N51" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="88"/>
+      <c r="P51" s="88"/>
+      <c r="Q51" s="88"/>
       <c r="R51" s="29"/>
       <c r="S51" s="29"/>
       <c r="T51" s="29"/>
@@ -5144,28 +5144,28 @@
     <row r="53" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" s="52" t="str">
         <f>CONCATENATE(B2,"(",B3,";",B4,")")</f>
         <v>(;)</v>
       </c>
       <c r="E53" s="53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F53" s="54">
         <f>B5</f>
         <v>0</v>
       </c>
       <c r="G53" s="53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53" s="54">
         <f>B6</f>
         <v>0</v>
       </c>
       <c r="I53" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J53" s="55">
         <f>B7</f>
@@ -5174,7 +5174,7 @@
       <c r="K53" s="24"/>
       <c r="M53" s="23"/>
       <c r="N53" s="56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O53" s="57">
         <f>D1</f>
@@ -5202,21 +5202,21 @@
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="E55" s="53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F55" s="54">
         <f>B8</f>
         <v>0</v>
       </c>
       <c r="G55" s="53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H55" s="54">
         <f>B9</f>
         <v>0</v>
       </c>
       <c r="I55" s="53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J55" s="55">
         <f>B10</f>
@@ -5314,17 +5314,17 @@
     <row r="60" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
+        <v>41</v>
+      </c>
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
       <c r="K60" s="24"/>
       <c r="M60" s="23"/>
       <c r="N60" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="O60" s="74"/>
-      <c r="P60" s="74"/>
+        <v>41</v>
+      </c>
+      <c r="O60" s="75"/>
+      <c r="P60" s="75"/>
       <c r="W60" s="22"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -5336,22 +5336,22 @@
     <row r="62" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="75"/>
+      <c r="D62" s="75"/>
+      <c r="F62" s="60" t="s">
         <v>43</v>
-      </c>
-      <c r="C62" s="74"/>
-      <c r="D62" s="74"/>
-      <c r="F62" s="60" t="s">
-        <v>44</v>
       </c>
       <c r="K62" s="24"/>
       <c r="M62" s="23"/>
       <c r="N62" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="O62" s="75"/>
+      <c r="P62" s="75"/>
+      <c r="R62" s="53" t="s">
         <v>43</v>
-      </c>
-      <c r="O62" s="74"/>
-      <c r="P62" s="74"/>
-      <c r="R62" s="53" t="s">
-        <v>44</v>
       </c>
       <c r="W62" s="22"/>
     </row>
@@ -5387,12 +5387,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P17:U18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="C20:I21"/>
-    <mergeCell ref="O20:U21"/>
     <mergeCell ref="A13:K16"/>
     <mergeCell ref="M13:W16"/>
     <mergeCell ref="D17:G18"/>
@@ -5405,6 +5399,12 @@
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="P17:U18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="C20:I21"/>
+    <mergeCell ref="O20:U21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/resources/sheets/exportTemplate.xlsx
+++ b/resources/sheets/exportTemplate.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Resultados" sheetId="1" r:id="rId1"/>
-    <sheet name="ISO 717-1" sheetId="2" r:id="rId2"/>
+    <sheet name="Hojas de informe" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -145,12 +145,6 @@
       </rPr>
       <t>w</t>
     </r>
-  </si>
-  <si>
-    <t>Indice de reducción sonora</t>
-  </si>
-  <si>
-    <t>Sound Transmission Class  STC</t>
   </si>
   <si>
     <t>Cliente:</t>
@@ -301,6 +295,12 @@
   </si>
   <si>
     <t>CREMER</t>
+  </si>
+  <si>
+    <t>Indice de reducción sonora de acuerdo con la norma ISO 140-4</t>
+  </si>
+  <si>
+    <t>Sound Transmission Class  STC de acuerdo con la norma ISO 140-4</t>
   </si>
 </sst>
 </file>
@@ -859,9 +859,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -889,6 +886,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -900,6 +899,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1357,10 +1357,10 @@
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H1" s="61" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -1395,7 +1395,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="6"/>
       <c r="G2" s="62" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2" s="63">
         <v>0</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -4126,7 +4126,7 @@
   <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="D1" s="17"/>
       <c r="F1" s="67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G1" s="66">
         <v>50</v>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B2" s="19"/>
       <c r="F2" s="69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G2" s="71"/>
       <c r="H2" s="71"/>
@@ -4249,7 +4249,7 @@
       <c r="D3" s="68"/>
       <c r="E3" s="68"/>
       <c r="F3" s="70" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" s="72"/>
       <c r="H3" s="72"/>
@@ -4320,215 +4320,215 @@
         <v>14</v>
       </c>
       <c r="B7" s="19"/>
-      <c r="D7" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
+      <c r="D7" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
     </row>
     <row r="8" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
     </row>
     <row r="9" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="19"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
     </row>
     <row r="10" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="79"/>
-      <c r="M13" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="79"/>
+      <c r="A13" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="76"/>
+      <c r="M13" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="76"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="80"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="81"/>
-      <c r="W14" s="82"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="79"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="79"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="82"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="79"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="79"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="85"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="85"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="82"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="82"/>
     </row>
     <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="K17" s="22"/>
       <c r="M17" s="23"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="75"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
       <c r="W17" s="24"/>
     </row>
     <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="C18" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="75"/>
+        <v>20</v>
+      </c>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="84"/>
       <c r="K18" s="22"/>
       <c r="M18" s="23"/>
       <c r="O18" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="75"/>
-      <c r="U18" s="75"/>
+        <v>20</v>
+      </c>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="84"/>
       <c r="W18" s="24"/>
     </row>
     <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="C19" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="21"/>
@@ -4539,7 +4539,7 @@
       <c r="K19" s="22"/>
       <c r="M19" s="23"/>
       <c r="O19" s="26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="27"/>
@@ -4549,50 +4549,50 @@
       <c r="U19" s="27"/>
       <c r="W19" s="24"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
       <c r="K20" s="22"/>
       <c r="M20" s="23"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="84"/>
       <c r="W20" s="24"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
       <c r="K21" s="24"/>
       <c r="M21" s="23"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="75"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="75"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
       <c r="W21" s="22"/>
     </row>
     <row r="22" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="28"/>
       <c r="E22" s="29"/>
       <c r="F22" s="30"/>
@@ -4602,8 +4602,8 @@
       <c r="J22" s="31"/>
       <c r="K22" s="24"/>
       <c r="M22" s="23"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="88"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="87"/>
       <c r="P22" s="28"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="29"/>
@@ -4615,14 +4615,14 @@
     </row>
     <row r="23" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="75"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="84"/>
       <c r="D23" s="32"/>
       <c r="J23" s="22"/>
       <c r="K23" s="24"/>
       <c r="M23" s="23"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="75"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="84"/>
       <c r="P23" s="32"/>
       <c r="V23" s="24"/>
       <c r="W23" s="24"/>
@@ -4641,10 +4641,10 @@
       <c r="A25" s="20"/>
       <c r="B25" s="23"/>
       <c r="C25" s="33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F25" s="73"/>
       <c r="J25" s="22"/>
@@ -4652,7 +4652,7 @@
       <c r="M25" s="23"/>
       <c r="N25" s="23"/>
       <c r="O25" s="33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P25" s="34" t="s">
         <v>9</v>
@@ -4664,26 +4664,26 @@
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="37" t="s">
         <v>28</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="37" t="s">
-        <v>30</v>
       </c>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
       <c r="O26" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" s="39" t="s">
         <v>28</v>
-      </c>
-      <c r="P26" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="S26" s="39" t="s">
-        <v>30</v>
       </c>
       <c r="V26" s="22"/>
       <c r="W26" s="22"/>
@@ -5105,12 +5105,12 @@
     </row>
     <row r="51" spans="1:23" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
-      <c r="B51" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
+      <c r="B51" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
       <c r="F51" s="29"/>
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
@@ -5118,12 +5118,12 @@
       <c r="J51" s="50"/>
       <c r="K51" s="24"/>
       <c r="M51" s="23"/>
-      <c r="N51" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="O51" s="88"/>
-      <c r="P51" s="88"/>
-      <c r="Q51" s="88"/>
+      <c r="N51" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="O51" s="87"/>
+      <c r="P51" s="87"/>
+      <c r="Q51" s="87"/>
       <c r="R51" s="29"/>
       <c r="S51" s="29"/>
       <c r="T51" s="29"/>
@@ -5144,28 +5144,28 @@
     <row r="53" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C53" s="52" t="str">
         <f>CONCATENATE(B2,"(",B3,";",B4,")")</f>
         <v>(;)</v>
       </c>
       <c r="E53" s="53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F53" s="54">
         <f>B5</f>
         <v>0</v>
       </c>
       <c r="G53" s="53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H53" s="54">
         <f>B6</f>
         <v>0</v>
       </c>
       <c r="I53" s="53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J53" s="55">
         <f>B7</f>
@@ -5174,7 +5174,7 @@
       <c r="K53" s="24"/>
       <c r="M53" s="23"/>
       <c r="N53" s="56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O53" s="57">
         <f>D1</f>
@@ -5202,21 +5202,21 @@
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="E55" s="53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F55" s="54">
         <f>B8</f>
         <v>0</v>
       </c>
       <c r="G55" s="53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H55" s="54">
         <f>B9</f>
         <v>0</v>
       </c>
       <c r="I55" s="53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J55" s="55">
         <f>B10</f>
@@ -5314,17 +5314,17 @@
     <row r="60" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="75"/>
-      <c r="D60" s="75"/>
+        <v>39</v>
+      </c>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
       <c r="K60" s="24"/>
       <c r="M60" s="23"/>
       <c r="N60" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="O60" s="75"/>
-      <c r="P60" s="75"/>
+        <v>39</v>
+      </c>
+      <c r="O60" s="84"/>
+      <c r="P60" s="84"/>
       <c r="W60" s="22"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -5336,22 +5336,22 @@
     <row r="62" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75"/>
+        <v>40</v>
+      </c>
+      <c r="C62" s="84"/>
+      <c r="D62" s="84"/>
       <c r="F62" s="60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K62" s="24"/>
       <c r="M62" s="23"/>
       <c r="N62" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="O62" s="75"/>
-      <c r="P62" s="75"/>
+        <v>40</v>
+      </c>
+      <c r="O62" s="84"/>
+      <c r="P62" s="84"/>
       <c r="R62" s="53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W62" s="22"/>
     </row>
@@ -5387,6 +5387,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C20:I21"/>
+    <mergeCell ref="O20:U21"/>
     <mergeCell ref="A13:K16"/>
     <mergeCell ref="M13:W16"/>
     <mergeCell ref="D17:G18"/>
@@ -5403,8 +5405,6 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="O60:P60"/>
-    <mergeCell ref="C20:I21"/>
-    <mergeCell ref="O20:U21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
